--- a/Resource/excel/table/K-框架-随机权重-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/K-框架-随机权重-(框架定义,策划填写).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="0" windowWidth="26340" windowHeight="12615" tabRatio="710"/>
+    <workbookView windowHeight="23620" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="weight" sheetId="6" r:id="rId1"/>
@@ -27,30 +22,17 @@
     <author>刘小兵(橘右京)</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>key=Id     列表字段主键( 不填的话, 表示没有key, 用0代替 )
+key=Id     列表字段主键( 不填的话, 表示没有key, 用0代替 )
 channel=0   是否区分渠道, 默认不区分
 repeat=1  表示字段id可以重复
 cpp=xxxx cpp生成的类名( 不填表示不生成 )
@@ -65,7 +47,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+  <si>
+    <t>xml=weight</t>
+  </si>
+  <si>
+    <t>key=Int,Id</t>
+  </si>
+  <si>
+    <t>cpp=Weight</t>
+  </si>
+  <si>
+    <t>KFWeight=2,KFWeightList&lt;{}&gt;,权重列表</t>
+  </si>
+  <si>
+    <t>cpp</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>uint32-&gt;KFWeight</t>
+  </si>
+  <si>
+    <t>csharp</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>权重池id</t>
+  </si>
   <si>
     <t>权重ID</t>
   </si>
@@ -73,78 +88,41 @@
     <t>权重值</t>
   </si>
   <si>
-    <t>key=Int,Id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpp</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>csharp</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>lua</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>mark</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Value</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Weight</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>权重池id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32-&gt;KFWeight</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32-&gt;KFWeight</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>KFWeight=2,KFWeightList&lt;{}&gt;,权重列表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpp=Weight</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>xml=weight</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>刷新任务的品质权重</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -173,40 +151,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,18 +317,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -255,9 +537,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -265,54 +789,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -334,15 +906,12 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FF05FF6F"/>
+      <color rgb="0005FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -671,699 +1240,719 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="22.4615384615385" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="40" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:4">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9"/>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="D9" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10"/>
+      <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8"/>
-      <c r="B8" s="8"/>
-      <c r="C8"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9"/>
-      <c r="B9" s="8"/>
-      <c r="C9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10"/>
-      <c r="B10" s="8"/>
-      <c r="C10"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D10" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="11"/>
       <c r="C11"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="11"/>
       <c r="C12"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="11"/>
       <c r="C13"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14"/>
-      <c r="B14" s="8"/>
+      <c r="B14" s="11"/>
       <c r="C14"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15"/>
-      <c r="B15" s="8"/>
+      <c r="B15" s="11"/>
       <c r="C15"/>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="11"/>
       <c r="C16"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="11"/>
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="11"/>
       <c r="C18"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19"/>
-      <c r="B19" s="8"/>
+      <c r="B19" s="11"/>
       <c r="C19"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="11"/>
       <c r="C20"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="11"/>
       <c r="C21"/>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22"/>
-      <c r="B22" s="8"/>
+      <c r="B22" s="11"/>
       <c r="C22"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23"/>
-      <c r="B23" s="8"/>
+      <c r="B23" s="11"/>
       <c r="C23"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24"/>
-      <c r="B24" s="8"/>
+      <c r="B24" s="11"/>
       <c r="C24"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25"/>
-      <c r="B25" s="8"/>
+      <c r="B25" s="11"/>
       <c r="C25"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="11"/>
       <c r="C26"/>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27"/>
-      <c r="B27" s="8"/>
+      <c r="B27" s="11"/>
       <c r="C27"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="11"/>
       <c r="C28"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29"/>
-      <c r="B29" s="8"/>
+      <c r="B29" s="11"/>
       <c r="C29"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30"/>
-      <c r="B30" s="8"/>
+      <c r="B30" s="11"/>
       <c r="C30"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31"/>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31"/>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32"/>
-      <c r="B32" s="8"/>
+      <c r="B32" s="11"/>
       <c r="C32"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33"/>
-      <c r="B33" s="8"/>
+      <c r="B33" s="11"/>
       <c r="C33"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34"/>
-      <c r="B34" s="8"/>
+      <c r="B34" s="11"/>
       <c r="C34"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35"/>
-      <c r="B35" s="8"/>
+      <c r="B35" s="11"/>
       <c r="C35"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36"/>
-      <c r="B36" s="8"/>
+      <c r="B36" s="11"/>
       <c r="C36"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1" spans="1:4">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D54" s="13"/>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D56" s="13"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D57" s="13"/>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D58" s="13"/>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D61" s="13"/>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
-      <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
-      <c r="D66" s="10"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
-      <c r="D76" s="10"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D76" s="13"/>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
-      <c r="D77" s="10"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D77" s="13"/>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
-      <c r="D78" s="10"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D78" s="13"/>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
-      <c r="D79" s="10"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D79" s="13"/>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
-      <c r="D80" s="10"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D80" s="13"/>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
-      <c r="D81" s="10"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D81" s="13"/>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
-      <c r="D82" s="10"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D82" s="13"/>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
-      <c r="D83" s="10"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D83" s="13"/>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
-      <c r="D84" s="10"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D84" s="13"/>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
-      <c r="D85" s="10"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D85" s="13"/>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
-      <c r="D86" s="10"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D86" s="13"/>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
-      <c r="D87" s="10"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D87" s="13"/>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
-      <c r="D88" s="10"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D88" s="13"/>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
-      <c r="D89" s="10"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D89" s="13"/>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
-      <c r="D90" s="10"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D90" s="13"/>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
-      <c r="D91" s="10"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D91" s="13"/>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
-      <c r="D92" s="10"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D92" s="13"/>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
-      <c r="D93" s="10"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D93" s="13"/>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
-      <c r="D94" s="10"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D94" s="13"/>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
-      <c r="D95" s="10"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D95" s="13"/>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
-      <c r="D96" s="10"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D96" s="13"/>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
-      <c r="D97" s="10"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D97" s="13"/>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
-      <c r="D98" s="10"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D98" s="13"/>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
-      <c r="D99" s="10"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D99" s="13"/>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
-      <c r="D100" s="10"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D100" s="13"/>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
-      <c r="D101" s="10"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D101" s="13"/>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
-      <c r="D102" s="10"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D102" s="13"/>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
-      <c r="D103" s="10"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D103" s="13"/>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
-      <c r="D104" s="10"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D104" s="13"/>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
-      <c r="D105" s="10"/>
+      <c r="D105" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resource/excel/table/K-框架-随机权重-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/K-框架-随机权重-(框架定义,策划填写).xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>xml=weight</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>cpp=Weight</t>
+  </si>
+  <si>
+    <t>repeat=1</t>
   </si>
   <si>
     <t>KFWeight=2,KFWeightList&lt;{}&gt;,权重列表</t>
@@ -109,20 +112,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -173,6 +170,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -180,8 +200,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,53 +277,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -251,58 +286,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,85 +332,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,91 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,6 +536,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -572,16 +592,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,188 +620,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -792,43 +777,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1246,22 +1231,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="22.4615384615385" style="6" customWidth="1"/>
     <col min="2" max="2" width="16" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="6" customWidth="1"/>
     <col min="4" max="4" width="40" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="6"/>
+    <col min="5" max="6" width="44" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,6 +1259,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:4">
@@ -1291,59 +1280,59 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
